--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.012521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.012521.xlsx_with_dialog_acts.xlsx
@@ -1021,12 +1021,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5935,12 +5935,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6439,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6523,12 +6523,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7153,12 +7153,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7195,12 +7195,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7409,12 +7409,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7493,12 +7493,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7661,12 +7661,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7829,12 +7829,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7997,12 +7997,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8127,12 +8127,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8803,12 +8803,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8971,12 +8971,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9055,12 +9055,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9685,12 +9685,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10231,12 +10231,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10567,12 +10567,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10609,12 +10609,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10903,12 +10903,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11197,12 +11197,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11369,12 +11369,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11621,12 +11621,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11663,12 +11663,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12209,12 +12209,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12633,12 +12633,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14145,12 +14145,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14733,12 +14733,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15027,12 +15027,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15405,12 +15405,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15447,12 +15447,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16413,12 +16413,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16581,12 +16581,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17877,12 +17877,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18001,12 +18001,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18081,12 +18081,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18285,12 +18285,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18445,12 +18445,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19009,12 +19009,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19409,12 +19409,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19689,12 +19689,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19849,12 +19849,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20089,12 +20089,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20209,12 +20209,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20609,12 +20609,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21449,12 +21449,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21489,12 +21489,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22133,12 +22133,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22213,12 +22213,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23177,12 +23177,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
